--- a/output_tables/DR2_results_M_reca_calibrated_421S.xlsx
+++ b/output_tables/DR2_results_M_reca_calibrated_421S.xlsx
@@ -522,11 +522,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-5.4665</v>
+        <v>-4.067</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/output_tables/DR2_results_M_reca_calibrated_421S.xlsx
+++ b/output_tables/DR2_results_M_reca_calibrated_421S.xlsx
@@ -498,27 +498,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-8.3545</v>
+        <v>-10.365</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-6.7255</v>
+        <v>-6.7295</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-8.378499999999999</v>
+        <v>-10.4915</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,15 +526,15 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-4.067</v>
+        <v>-7.081</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-15.533</v>
+        <v>-18.4525</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables/DR2_results_M_reca_calibrated_421S.xlsx
+++ b/output_tables/DR2_results_M_reca_calibrated_421S.xlsx
@@ -493,32 +493,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vwc</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRP1QP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-10.365</v>
+        <v>-15.401</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRP1QP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-6.7295</v>
+        <v>-12.989</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PRP1QP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-10.4915</v>
+        <v>-14.8495</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,15 +526,15 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-7.081</v>
+        <v>-9.192</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>PRP1QP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-18.4525</v>
+        <v>-30.351</v>
       </c>
     </row>
   </sheetData>
